--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204B4CCF-B67E-4D46-A091-C38335791D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15FE049-5C26-4541-96B6-371139D0E704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46800" yWindow="-6620" windowWidth="52000" windowHeight="24800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="56580" yWindow="-5380" windowWidth="57600" windowHeight="26380" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="90">
   <si>
     <t>key</t>
   </si>
@@ -345,6 +345,38 @@
   </si>
   <si>
     <t>w.oa.trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.admit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9e97bdbd-86ea-4cea-b7ba-6b5284e03c84</t>
+  </si>
+  <si>
+    <t>8c369807-9ecc-4a9d-a7a3-a7e7e9a40b2d</t>
+  </si>
+  <si>
+    <t>c5b7d658-9924-4642-bdfc-3e30fe2cdb87</t>
+  </si>
+  <si>
+    <t>指定交接人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6d430c6d-71dc-4910-8550-958374060594</t>
+  </si>
+  <si>
+    <t>e.end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.flowEnd == false and $zn.status == "FINISHED"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单"${zn.taskSerial}"通过了审批，被${un.closeBy.realname}关闭。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
-  <dimension ref="A2:P13"/>
+  <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1252,7 +1284,7 @@
         <v>1015</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>37</v>
@@ -1375,13 +1407,13 @@
         <v>69</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="9">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>59</v>
@@ -1399,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>60</v>
@@ -1410,6 +1442,182 @@
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1010</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1015</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1020</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1020</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15FE049-5C26-4541-96B6-371139D0E704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA106F1B-33D4-A84F-AB3E-3A5D0BA696C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56580" yWindow="-5380" windowWidth="57600" windowHeight="26380" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="54720" yWindow="-3240" windowWidth="57600" windowHeight="26380" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -899,7 +899,7 @@
   <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -910,12 +910,12 @@
     <col min="4" max="4" width="17" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="90.1640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="90.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="99.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="81.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -967,22 +967,22 @@
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>14</v>
@@ -1017,22 +1017,22 @@
         <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>22</v>
@@ -1067,22 +1067,22 @@
         <v>32</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="11" t="b">
+      <c r="L5" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
@@ -1111,22 +1111,22 @@
         <v>46</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="11" t="b">
+      <c r="L6" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
@@ -1155,22 +1155,22 @@
         <v>48</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="11" t="b">
+      <c r="L7" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
@@ -1199,22 +1199,22 @@
         <v>62</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="11" t="b">
+      <c r="L8" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
@@ -1243,22 +1243,22 @@
         <v>63</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="11" t="b">
+      <c r="L9" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
@@ -1287,22 +1287,22 @@
         <v>85</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="11" t="b">
+      <c r="L10" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
@@ -1331,22 +1331,22 @@
         <v>42</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="11" t="b">
+      <c r="L11" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
@@ -1375,22 +1375,22 @@
         <v>52</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="11" t="b">
+      <c r="L12" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
@@ -1418,23 +1418,23 @@
       <c r="F13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="11" t="b">
+      <c r="L13" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
@@ -1463,22 +1463,22 @@
         <v>79</v>
       </c>
       <c r="G14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="11" t="b">
+      <c r="L14" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
@@ -1507,22 +1507,22 @@
         <v>42</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="11" t="b">
+      <c r="L15" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
@@ -1551,22 +1551,22 @@
         <v>52</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="K16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="11" t="b">
+      <c r="L16" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
@@ -1594,23 +1594,23 @@
       <c r="F17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="K17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="11" t="b">
+      <c r="L17" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA106F1B-33D4-A84F-AB3E-3A5D0BA696C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EB906A-A03C-D54E-90EB-BD09BF2EBD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54720" yWindow="-3240" windowWidth="57600" windowHeight="26380" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="42540" yWindow="-1120" windowWidth="57600" windowHeight="26380" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
   <si>
     <t>key</t>
   </si>
@@ -230,34 +230,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zn.flowEnd == true and $zn.status == "CANCELED"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.flowEnd == true and $zn.status == "FINISHED"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"${lo.realname}"关闭了"${zw.name}"工单"${zn.serial}"。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重新派工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>acceptedBy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zn.toUser != null and $zn.status == "PENDING"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zo.acceptedBy != null and $zn.status == "PENDING"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"${un.openBy.realname}"提交了一份"${zn.serial}"工单。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,18 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zo.status == null and $zn.phase == "DRAFT"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.status == "DRAFT" and $zn.phase == "REJECTED"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.status == "DRAFT" and $zn.phase == "REDO"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JSON:plugin/erp/oob/rule/process.oa.trip/activity-initialize.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,10 +308,6 @@
     <t>dd41c18e-1a0e-4da8-9635-81ee89b7c303</t>
   </si>
   <si>
-    <t>指定审批人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>w.oa.trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,9 +319,6 @@
     <t>9e97bdbd-86ea-4cea-b7ba-6b5284e03c84</t>
   </si>
   <si>
-    <t>8c369807-9ecc-4a9d-a7a3-a7e7e9a40b2d</t>
-  </si>
-  <si>
     <t>c5b7d658-9924-4642-bdfc-3e30fe2cdb87</t>
   </si>
   <si>
@@ -368,16 +329,68 @@
     <t>6d430c6d-71dc-4910-8550-958374060594</t>
   </si>
   <si>
-    <t>e.end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.flowEnd == false and $zn.status == "FINISHED"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务单"${zn.taskSerial}"通过了审批，被${un.closeBy.realname}关闭。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.phase == "DRAFT" and $zo.status == null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "CANCELED" and $zn.flowEnd == true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "FINISHED" and $zn.flowEnd == true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.phase == "REJECTED" and $zn.status == "DRAFT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.phase == "REDO" and $zn.status == "DRAFT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.toUser != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定审批领导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.status == "FINISHED" and $zn.flowEnd == true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批通过/关单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zo.acceptedBy != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "FINISHED" and $zn.flowEnd == false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9ef85c49-3cc5-4c85-8399-c7c795a9fcfa</t>
+  </si>
+  <si>
+    <t>dd2100a3-e3d5-4dd2-ba7a-760ff1389857</t>
+  </si>
+  <si>
+    <t>77e4d5db-6cf6-497e-ba51-ea069ad58ad8</t>
+  </si>
+  <si>
+    <t>cbc398cb-0982-4139-9cfe-05ef253fff50</t>
   </si>
 </sst>
 </file>
@@ -896,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
-  <dimension ref="A2:P17"/>
+  <dimension ref="A2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -909,8 +922,8 @@
     <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="92.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="99.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -1049,10 +1062,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>34</v>
@@ -1067,7 +1080,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>39</v>
@@ -1076,7 +1089,7 @@
         <v>37</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>33</v>
@@ -1086,17 +1099,17 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>34</v>
@@ -1111,7 +1124,7 @@
         <v>46</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>47</v>
@@ -1120,7 +1133,7 @@
         <v>37</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>33</v>
@@ -1130,17 +1143,17 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>34</v>
@@ -1155,16 +1168,16 @@
         <v>48</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>33</v>
@@ -1174,17 +1187,17 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>34</v>
@@ -1196,19 +1209,19 @@
         <v>1020</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>33</v>
@@ -1218,17 +1231,17 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>34</v>
@@ -1240,19 +1253,19 @@
         <v>1020</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>33</v>
@@ -1262,17 +1275,17 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>41</v>
@@ -1281,42 +1294,42 @@
         <v>38</v>
       </c>
       <c r="E10" s="9">
-        <v>1015</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>85</v>
+        <v>1005</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L10" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>41</v>
@@ -1327,40 +1340,40 @@
       <c r="E11" s="9">
         <v>1010</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>42</v>
+      <c r="F11" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L11" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>41</v>
@@ -1372,63 +1385,63 @@
         <v>1015</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L12" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="9">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>33</v>
@@ -1438,85 +1451,85 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="8" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E14" s="9">
-        <v>1010</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>79</v>
+        <v>1015</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L14" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="E15" s="9">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>33</v>
@@ -1526,98 +1539,230 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="9">
-        <v>1020</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>52</v>
+        <v>1010</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>53</v>
+        <v>71</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="L16" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>31</v>
+        <v>72</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E17" s="9">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="G17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="L17" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1015</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1015</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1020</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EB906A-A03C-D54E-90EB-BD09BF2EBD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B33D41-5EFA-B041-B59F-0FCEA2AB0F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42540" yWindow="-1120" windowWidth="57600" windowHeight="26380" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="42040" yWindow="-2640" windowWidth="57600" windowHeight="26380" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"${lo.realname}"保存了一份"${zw.name}"工单的草稿。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>toUser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,26 +218,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"${lo.realname}"撤销了"${zw.name}"工单"${zn.serial}"。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关闭流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"${lo.realname}"关闭了"${zw.name}"工单"${zn.serial}"。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>acceptedBy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"${un.openBy.realname}"提交了一份"${zn.serial}"工单。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"${lo.realname}"将"${zn.taskSerial}"任务转给了"${un.acceptedBy.realname}"。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,13 +375,25 @@
   </si>
   <si>
     <t>cbc398cb-0982-4139-9cfe-05ef253fff50</t>
+  </si>
+  <si>
+    <t>"${lo.realname}"保存了一份"${zw.name}"任务单的草稿。</t>
+  </si>
+  <si>
+    <t>"${lo.realname}"撤销了"${zw.name}"任务单"${zn.serial}"。</t>
+  </si>
+  <si>
+    <t>"${lo.realname}"关闭了"${zw.name}"任务单"${zn.serial}"。</t>
+  </si>
+  <si>
+    <t>"${un.openBy.realname}"提交了一份"${zn.serial}"任务单。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -428,8 +424,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +461,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,6 +605,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,7 +924,7 @@
   <dimension ref="A2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -974,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
@@ -1024,7 +1036,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>18</v>
@@ -1062,10 +1074,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>34</v>
@@ -1080,16 +1092,16 @@
         <v>32</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>33</v>
@@ -1099,17 +1111,17 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>34</v>
@@ -1121,19 +1133,19 @@
         <v>1015</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>33</v>
@@ -1143,17 +1155,17 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>34</v>
@@ -1165,19 +1177,19 @@
         <v>1015</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>33</v>
@@ -1187,17 +1199,17 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>34</v>
@@ -1209,19 +1221,19 @@
         <v>1020</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>33</v>
@@ -1231,17 +1243,17 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>34</v>
@@ -1253,19 +1265,19 @@
         <v>1020</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>33</v>
@@ -1275,20 +1287,20 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>38</v>
@@ -1296,20 +1308,20 @@
       <c r="E10" s="9">
         <v>1005</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>33</v>
@@ -1319,20 +1331,20 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>38</v>
@@ -1340,43 +1352,43 @@
       <c r="E11" s="9">
         <v>1010</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>75</v>
+      <c r="F11" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>38</v>
@@ -1385,42 +1397,42 @@
         <v>1015</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L12" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>31</v>
@@ -1429,19 +1441,19 @@
         <v>1015</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>33</v>
@@ -1451,20 +1463,20 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>31</v>
@@ -1473,19 +1485,19 @@
         <v>1015</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>33</v>
@@ -1495,20 +1507,20 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>31</v>
@@ -1517,19 +1529,19 @@
         <v>1020</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>33</v>
@@ -1539,20 +1551,20 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>38</v>
@@ -1561,42 +1573,42 @@
         <v>1010</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L16" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>38</v>
@@ -1605,42 +1617,42 @@
         <v>1015</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L17" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>31</v>
@@ -1649,19 +1661,19 @@
         <v>1015</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>33</v>
@@ -1671,20 +1683,20 @@
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>31</v>
@@ -1693,19 +1705,19 @@
         <v>1015</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>33</v>
@@ -1715,20 +1727,20 @@
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>31</v>
@@ -1737,19 +1749,19 @@
         <v>1020</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>33</v>
@@ -1759,7 +1771,7 @@
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B33D41-5EFA-B041-B59F-0FCEA2AB0F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC174CC-90C6-9B45-BE04-0B0E1D79509F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42040" yWindow="-2640" windowWidth="57600" windowHeight="26380" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="56520" yWindow="-1100" windowWidth="51800" windowHeight="22100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
   <si>
     <t>key</t>
   </si>
@@ -158,18 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WORKFLOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存草稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>e.draft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zn.status == "PENDING"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>规则顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,34 +202,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关闭流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>acceptedBy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"${lo.realname}"将"${zn.taskSerial}"任务转给了"${un.acceptedBy.realname}"。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一份"${zn.taskSerial}"任务分派给了"${un.acceptedBy.realname}"。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务单"${zn.taskSerial}"通过了审批。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"${lo.realname}"拒绝了任务单"${zn.taskSerial}"，审批未通过。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拒绝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"${lo.realname}"驳回了任务单"${zn.taskSerial}"，审批未通过。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JSON:plugin/erp/oob/rule/process.oa.trip/activity-initialize.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,33 +221,6 @@
     <t>process.oa.trip</t>
   </si>
   <si>
-    <t>2dfb782f-3e86-421a-9863-cb13fbee7a9d</t>
-  </si>
-  <si>
-    <t>340ded4a-313d-442a-bb0e-0339c8f0da90</t>
-  </si>
-  <si>
-    <t>6b473a4c-5cfb-41ef-af1d-cd3b9311ef11</t>
-  </si>
-  <si>
-    <t>92bbd0c9-157a-446f-8faf-6e5a2641be00</t>
-  </si>
-  <si>
-    <t>779dc4ee-1144-49ae-9750-867a06e3bca8</t>
-  </si>
-  <si>
-    <t>9adac987-2d80-4004-993e-daee049f1f25</t>
-  </si>
-  <si>
-    <t>6c7bd69e-82b6-4773-ab43-51f90796b2cf</t>
-  </si>
-  <si>
-    <t>6079d83e-4153-4078-8d14-290bb1f595de</t>
-  </si>
-  <si>
-    <t>dd41c18e-1a0e-4da8-9635-81ee89b7c303</t>
-  </si>
-  <si>
     <t>w.oa.trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,43 +229,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9e97bdbd-86ea-4cea-b7ba-6b5284e03c84</t>
-  </si>
-  <si>
-    <t>c5b7d658-9924-4642-bdfc-3e30fe2cdb87</t>
-  </si>
-  <si>
     <t>指定交接人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6d430c6d-71dc-4910-8550-958374060594</t>
-  </si>
-  <si>
-    <t>任务单"${zn.taskSerial}"通过了审批，被${un.closeBy.realname}关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.phase == "DRAFT" and $zo.status == null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.status == "CANCELED" and $zn.flowEnd == true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.status == "FINISHED" and $zn.flowEnd == true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.phase == "REJECTED" and $zn.status == "DRAFT"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.phase == "REDO" and $zn.status == "DRAFT"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$zn.status == "PENDING" and $zn.toUser != null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,35 +261,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9ef85c49-3cc5-4c85-8399-c7c795a9fcfa</t>
-  </si>
-  <si>
-    <t>dd2100a3-e3d5-4dd2-ba7a-760ff1389857</t>
-  </si>
-  <si>
-    <t>77e4d5db-6cf6-497e-ba51-ea069ad58ad8</t>
-  </si>
-  <si>
-    <t>cbc398cb-0982-4139-9cfe-05ef253fff50</t>
-  </si>
-  <si>
-    <t>"${lo.realname}"保存了一份"${zw.name}"任务单的草稿。</t>
-  </si>
-  <si>
-    <t>"${lo.realname}"撤销了"${zw.name}"任务单"${zn.serial}"。</t>
-  </si>
-  <si>
-    <t>"${lo.realname}"关闭了"${zw.name}"任务单"${zn.serial}"。</t>
-  </si>
-  <si>
-    <t>"${un.openBy.realname}"提交了一份"${zn.serial}"任务单。</t>
+    <t>暂存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.phase == null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$zn.flowEnd == true and $zn.status == "CANCELED" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.flowEnd == true and $zn.status == "FINISHED"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "DRAFT" and $zn.phase == "REDO"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "DRAFT" and $zn.phase == "REJECTED"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process.oa.trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.phase == "DRAFT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交接确认完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${lo.realname}”暂存了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”撤销了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”关闭了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”拒绝了任务单：${zn.taskSerial}，审批未通过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${lo.realname}”驳回了任务单：${zn.taskSerial}，审批未通过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单${zn.taskSerial}分派给了“${un.acceptedBy.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}通过审批，工作交接确认完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}分派给了“${un.acceptedBy.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}通过了审批，被${un.closeBy.realname}关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${un.openBy.realname}”提交了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”将任务单：${zn.taskSerial}转给了“${un.acceptedBy.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54dce2fb-94a4-4b11-92c5-1b305a93e94c</t>
+  </si>
+  <si>
+    <t>cbc03480-8b2a-4a4e-bb7d-08ad9928dc4d</t>
+  </si>
+  <si>
+    <t>fb7b19fa-bdff-4008-9d70-e1c9be2d3efa</t>
+  </si>
+  <si>
+    <t>7361a77c-66d5-44f6-8449-d7a2a461557c</t>
+  </si>
+  <si>
+    <t>fe927e93-dd60-434b-bfcd-20aa852ac8e5</t>
+  </si>
+  <si>
+    <t>cbc66261-29d3-42aa-843e-716c53a23866</t>
+  </si>
+  <si>
+    <t>10f6d04d-04ab-4e10-bd4e-2a85b8c61261</t>
+  </si>
+  <si>
+    <t>6e5288f2-8d3b-4382-954e-6b51588e5935</t>
+  </si>
+  <si>
+    <t>7f48625b-e1fe-4fa6-a8fc-7c2947401d9b</t>
+  </si>
+  <si>
+    <t>9c630a04-92e5-4284-9752-8a2530764b48</t>
+  </si>
+  <si>
+    <t>8a3de14c-4553-4433-b94a-c0564c8167d7</t>
+  </si>
+  <si>
+    <t>cdfbdfa6-b7ca-44d3-98f6-9fb123107667</t>
+  </si>
+  <si>
+    <t>86aa3439-acb4-4634-bd55-118b34ab36c3</t>
+  </si>
+  <si>
+    <t>ecfcfa34-c338-4fcd-b561-a3cd468ab905</t>
+  </si>
+  <si>
+    <t>c9815e54-a80b-4b48-bf9f-f12789f50dc0</t>
+  </si>
+  <si>
+    <t>c5b00ea8-4881-42f9-a9ae-b8f384b984a7</t>
+  </si>
+  <si>
+    <t>c5e1e99d-9ec8-4cfa-902d-742d5e40290f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -419,14 +426,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="0"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -466,7 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,13 +599,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
-  <dimension ref="A2:P20"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -932,11 +928,11 @@
     <col min="1" max="1" width="54.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="92.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="99.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="111" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
@@ -986,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
@@ -998,7 +994,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>11</v>
@@ -1036,7 +1032,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>18</v>
@@ -1048,7 +1044,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>19</v>
@@ -1074,707 +1070,725 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="9">
         <v>1005</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K5" s="9"/>
       <c r="L5" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1005</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1015</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="J6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K6" s="9"/>
       <c r="L6" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1010</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1015</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="J7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K7" s="9"/>
       <c r="L7" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1010</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1020</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="J8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K8" s="9"/>
       <c r="L8" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1015</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1020</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="J9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K9" s="9"/>
       <c r="L9" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1005</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1015</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K10" s="9"/>
       <c r="L10" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1005</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="9">
-        <v>1010</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K11" s="9"/>
       <c r="L11" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" s="9">
-        <v>1015</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>81</v>
+        <v>1010</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="11" t="s">
         <v>47</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="L12" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E13" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="L13" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E14" s="9">
         <v>1015</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K14" s="9"/>
       <c r="L14" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="E15" s="9">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K15" s="9"/>
       <c r="L15" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E16" s="9">
-        <v>1010</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>80</v>
+        <v>1005</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K16" s="9"/>
       <c r="L16" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="9">
-        <v>1015</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>81</v>
+        <v>1010</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="11" t="s">
         <v>47</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="L17" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E18" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="L18" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E19" s="9">
         <v>1015</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K19" s="9"/>
       <c r="L19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="E20" s="9">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K20" s="9"/>
       <c r="L20" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1020</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC174CC-90C6-9B45-BE04-0B0E1D79509F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3DC34F-B3D2-9344-8BE9-4B0F0F62E3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56520" yWindow="-1100" windowWidth="51800" windowHeight="22100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="50160" yWindow="-1300" windowWidth="51800" windowHeight="22100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="96">
   <si>
     <t>key</t>
   </si>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>e.approve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,10 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zn.status == "PENDING" and $zn.toUser != null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指定审批领导</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zo.status == "FINISHED" and $zn.flowEnd == true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审批通过/关单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务单${zn.taskSerial}分派给了“${un.acceptedBy.realname}”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务单：${zn.taskSerial}通过审批，工作交接确认完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,6 +378,22 @@
   </si>
   <si>
     <t>c5e1e99d-9ec8-4cfa-902d-742d5e40290f</t>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.flowEnd == true and $zn.phase == "FINISHED"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.flowEnd == true and $zn.phase == "END"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$zn.flowEnd == true and $zn.phase == "CANCELED" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
   <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -982,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
@@ -1032,7 +1032,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>18</v>
@@ -1070,34 +1070,34 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" s="9">
         <v>1005</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="11" t="b">
@@ -1105,41 +1105,41 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="9">
         <v>1005</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="11" t="b">
@@ -1147,41 +1147,41 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E7" s="9">
         <v>1010</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="11" t="b">
@@ -1189,41 +1189,41 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E8" s="9">
         <v>1010</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="11" t="b">
@@ -1231,41 +1231,41 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" s="17">
         <v>1015</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="11" t="b">
@@ -1273,41 +1273,41 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" s="17">
         <v>1015</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="11" t="b">
@@ -1315,41 +1315,41 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="17">
         <v>1005</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="11" t="b">
@@ -1357,64 +1357,62 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E12" s="9">
         <v>1010</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>36</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K12" s="9"/>
       <c r="L12" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>35</v>
@@ -1423,63 +1421,63 @@
         <v>1010</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E14" s="9">
         <v>1015</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="11" t="b">
@@ -1487,41 +1485,41 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E15" s="9">
         <v>1015</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="H15" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="11" t="b">
@@ -1529,41 +1527,41 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="9">
         <v>1005</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="11" t="b">
@@ -1571,64 +1569,62 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E17" s="9">
         <v>1010</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>36</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K17" s="9"/>
       <c r="L17" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>35</v>
@@ -1637,63 +1633,63 @@
         <v>1010</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L18" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="9">
         <v>1015</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="11" t="b">
@@ -1701,41 +1697,41 @@
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" s="9">
         <v>1015</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="11" t="b">
@@ -1743,41 +1739,41 @@
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E21" s="9">
         <v>1020</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="11" t="b">
@@ -1785,7 +1781,7 @@
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3DC34F-B3D2-9344-8BE9-4B0F0F62E3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44ECEAD-993C-CD40-AE40-778831384DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50160" yWindow="-1300" windowWidth="51800" windowHeight="22100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -920,7 +920,7 @@
   <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44ECEAD-993C-CD40-AE40-778831384DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1BDD27-FA50-E145-9BBF-A5B5C223421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50160" yWindow="-1300" windowWidth="51800" windowHeight="22100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="60340" yWindow="-14560" windowWidth="51800" windowHeight="22100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="98">
   <si>
     <t>key</t>
   </si>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zn.status == "FINISHED" and $zn.flowEnd == false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暂存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zo.phase == "DRAFT"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交接确认完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +385,20 @@
   </si>
   <si>
     <t xml:space="preserve">$zn.flowEnd == true and $zn.phase == "CANCELED" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.phase == "DRAFT" and $zn.flowEnd == false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zo.acceptedBy != null</t>
+  </si>
+  <si>
+    <t>$zo.phase == "PENDING" and $zn.flowEnd == false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,6 +432,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -556,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -603,6 +617,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,7 +936,7 @@
   <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G5" sqref="G5:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1070,7 +1086,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>45</v>
@@ -1079,19 +1095,19 @@
         <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="9">
         <v>1005</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>34</v>
@@ -1112,7 +1128,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>45</v>
@@ -1121,7 +1137,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="9">
         <v>1005</v>
@@ -1130,10 +1146,10 @@
         <v>37</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>34</v>
@@ -1154,7 +1170,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>45</v>
@@ -1163,7 +1179,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="9">
         <v>1010</v>
@@ -1172,10 +1188,10 @@
         <v>40</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>34</v>
@@ -1196,7 +1212,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>45</v>
@@ -1205,19 +1221,19 @@
         <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="9">
         <v>1010</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>34</v>
@@ -1238,7 +1254,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>45</v>
@@ -1247,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="17">
         <v>1015</v>
@@ -1256,10 +1272,10 @@
         <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>34</v>
@@ -1280,7 +1296,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>45</v>
@@ -1289,7 +1305,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="17">
         <v>1015</v>
@@ -1298,10 +1314,10 @@
         <v>43</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>34</v>
@@ -1322,16 +1338,16 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="17">
         <v>1005</v>
@@ -1340,10 +1356,10 @@
         <v>37</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>34</v>
@@ -1364,7 +1380,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>45</v>
@@ -1373,7 +1389,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="9">
         <v>1010</v>
@@ -1381,11 +1397,11 @@
       <c r="F12" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>92</v>
+      <c r="G12" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>34</v>
@@ -1406,7 +1422,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>45</v>
@@ -1423,11 +1439,11 @@
       <c r="F13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>52</v>
+      <c r="G13" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>34</v>
@@ -1450,7 +1466,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>45</v>
@@ -1459,7 +1475,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="9">
         <v>1015</v>
@@ -1468,10 +1484,10 @@
         <v>40</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>34</v>
@@ -1492,7 +1508,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>45</v>
@@ -1501,19 +1517,19 @@
         <v>36</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="9">
         <v>1015</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>34</v>
@@ -1534,7 +1550,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>45</v>
@@ -1543,19 +1559,19 @@
         <v>47</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="9">
         <v>1005</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>34</v>
@@ -1576,7 +1592,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>45</v>
@@ -1585,7 +1601,7 @@
         <v>47</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="9">
         <v>1010</v>
@@ -1594,10 +1610,10 @@
         <v>49</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>34</v>
@@ -1618,7 +1634,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>45</v>
@@ -1639,7 +1655,7 @@
         <v>52</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>34</v>
@@ -1662,7 +1678,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>45</v>
@@ -1671,7 +1687,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="9">
         <v>1015</v>
@@ -1680,10 +1696,10 @@
         <v>40</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>34</v>
@@ -1704,7 +1720,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>45</v>
@@ -1713,19 +1729,19 @@
         <v>47</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="9">
         <v>1015</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>34</v>
@@ -1746,7 +1762,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>45</v>
@@ -1755,7 +1771,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="9">
         <v>1020</v>
@@ -1764,10 +1780,10 @@
         <v>51</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>34</v>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1BDD27-FA50-E145-9BBF-A5B5C223421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1B92C0-1815-8942-AD8F-56703B24BF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60340" yWindow="-14560" windowWidth="51800" windowHeight="22100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-51200" yWindow="-5220" windowWidth="51200" windowHeight="22100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="122">
   <si>
     <t>key</t>
   </si>
@@ -273,150 +273,221 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>process.oa.trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交接确认完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${lo.realname}”暂存了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”撤销了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”关闭了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”拒绝了任务单：${zn.taskSerial}，审批未通过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${lo.realname}”驳回了任务单：${zn.taskSerial}，审批未通过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}通过审批，工作交接确认完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}分派给了“${un.acceptedBy.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}通过了审批，被${un.closeBy.realname}关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${un.openBy.realname}”提交了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”将任务单：${zn.taskSerial}转给了“${un.acceptedBy.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54dce2fb-94a4-4b11-92c5-1b305a93e94c</t>
+  </si>
+  <si>
+    <t>cbc03480-8b2a-4a4e-bb7d-08ad9928dc4d</t>
+  </si>
+  <si>
+    <t>fb7b19fa-bdff-4008-9d70-e1c9be2d3efa</t>
+  </si>
+  <si>
+    <t>7361a77c-66d5-44f6-8449-d7a2a461557c</t>
+  </si>
+  <si>
+    <t>fe927e93-dd60-434b-bfcd-20aa852ac8e5</t>
+  </si>
+  <si>
+    <t>cbc66261-29d3-42aa-843e-716c53a23866</t>
+  </si>
+  <si>
+    <t>10f6d04d-04ab-4e10-bd4e-2a85b8c61261</t>
+  </si>
+  <si>
+    <t>6e5288f2-8d3b-4382-954e-6b51588e5935</t>
+  </si>
+  <si>
+    <t>7f48625b-e1fe-4fa6-a8fc-7c2947401d9b</t>
+  </si>
+  <si>
+    <t>9c630a04-92e5-4284-9752-8a2530764b48</t>
+  </si>
+  <si>
+    <t>8a3de14c-4553-4433-b94a-c0564c8167d7</t>
+  </si>
+  <si>
+    <t>cdfbdfa6-b7ca-44d3-98f6-9fb123107667</t>
+  </si>
+  <si>
+    <t>86aa3439-acb4-4634-bd55-118b34ab36c3</t>
+  </si>
+  <si>
+    <t>ecfcfa34-c338-4fcd-b561-a3cd468ab905</t>
+  </si>
+  <si>
+    <t>c9815e54-a80b-4b48-bf9f-f12789f50dc0</t>
+  </si>
+  <si>
+    <t>c5b00ea8-4881-42f9-a9ae-b8f384b984a7</t>
+  </si>
+  <si>
+    <t>c5e1e99d-9ec8-4cfa-902d-742d5e40290f</t>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.flowEnd == true and $zn.phase == "FINISHED"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.flowEnd == true and $zn.phase == "END"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$zn.flowEnd == true and $zn.phase == "CANCELED" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.phase == "DRAFT" and $zn.flowEnd == false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zo.acceptedBy != null</t>
+  </si>
+  <si>
+    <t>$zo.phase == "PENDING" and $zn.flowEnd == false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVAL</t>
+  </si>
+  <si>
+    <t>审批意见</t>
+  </si>
+  <si>
     <t>$zn.status == "DRAFT" and $zn.phase == "REJECTED"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process.oa.trip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交接确认完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“${lo.realname}”暂存了${zw.name}工单：${zn.serial}。</t>
-  </si>
-  <si>
-    <t>“${lo.realname}”撤销了${zw.name}工单：${zn.serial}。</t>
-  </si>
-  <si>
-    <t>“${lo.realname}”关闭了${zw.name}工单：${zn.serial}。</t>
-  </si>
-  <si>
-    <t>“${lo.realname}”拒绝了任务单：${zn.taskSerial}，审批未通过。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“${lo.realname}”驳回了任务单：${zn.taskSerial}，审批未通过。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务单：${zn.taskSerial}通过审批，工作交接确认完成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务单：${zn.taskSerial}分派给了“${un.acceptedBy.realname}”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务单：${zn.taskSerial}通过了审批，被${un.closeBy.realname}关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“${un.openBy.realname}”提交了${zw.name}工单：${zn.serial}。</t>
-  </si>
-  <si>
-    <t>“${lo.realname}”将任务单：${zn.taskSerial}转给了“${un.acceptedBy.realname}”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54dce2fb-94a4-4b11-92c5-1b305a93e94c</t>
-  </si>
-  <si>
-    <t>cbc03480-8b2a-4a4e-bb7d-08ad9928dc4d</t>
-  </si>
-  <si>
-    <t>fb7b19fa-bdff-4008-9d70-e1c9be2d3efa</t>
-  </si>
-  <si>
-    <t>7361a77c-66d5-44f6-8449-d7a2a461557c</t>
-  </si>
-  <si>
-    <t>fe927e93-dd60-434b-bfcd-20aa852ac8e5</t>
-  </si>
-  <si>
-    <t>cbc66261-29d3-42aa-843e-716c53a23866</t>
-  </si>
-  <si>
-    <t>10f6d04d-04ab-4e10-bd4e-2a85b8c61261</t>
-  </si>
-  <si>
-    <t>6e5288f2-8d3b-4382-954e-6b51588e5935</t>
-  </si>
-  <si>
-    <t>7f48625b-e1fe-4fa6-a8fc-7c2947401d9b</t>
-  </si>
-  <si>
-    <t>9c630a04-92e5-4284-9752-8a2530764b48</t>
-  </si>
-  <si>
-    <t>8a3de14c-4553-4433-b94a-c0564c8167d7</t>
-  </si>
-  <si>
-    <t>cdfbdfa6-b7ca-44d3-98f6-9fb123107667</t>
-  </si>
-  <si>
-    <t>86aa3439-acb4-4634-bd55-118b34ab36c3</t>
-  </si>
-  <si>
-    <t>ecfcfa34-c338-4fcd-b561-a3cd468ab905</t>
-  </si>
-  <si>
-    <t>c9815e54-a80b-4b48-bf9f-f12789f50dc0</t>
-  </si>
-  <si>
-    <t>c5b00ea8-4881-42f9-a9ae-b8f384b984a7</t>
-  </si>
-  <si>
-    <t>c5e1e99d-9ec8-4cfa-902d-742d5e40290f</t>
-  </si>
-  <si>
-    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.flowEnd == true and $zn.phase == "FINISHED"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.flowEnd == true and $zn.phase == "END"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">$zn.flowEnd == true and $zn.phase == "CANCELED" </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zo.phase == "DRAFT" and $zn.flowEnd == false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
-  </si>
-  <si>
-    <t>$zn.status == "PENDING" and $zo.acceptedBy != null</t>
-  </si>
-  <si>
-    <t>$zo.phase == "PENDING" and $zn.flowEnd == false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.commentApproval != null</t>
+  </si>
+  <si>
+    <t>$zn.commentReject != null</t>
+  </si>
+  <si>
+    <t>e.approve</t>
+  </si>
+  <si>
+    <t>通过：${zn.commentApproval}</t>
+  </si>
+  <si>
+    <t>拒绝：${zn.commentReject}</t>
+  </si>
+  <si>
+    <t>commentApproval</t>
+  </si>
+  <si>
+    <t>cfa4faf3-c892-4ebf-a98d-36c29504ece8</t>
+  </si>
+  <si>
+    <t>e88c5615-28ee-4cdc-b5de-5e082b395f02</t>
+  </si>
+  <si>
+    <t>ab2da973-3255-4ea3-9050-22a9253b120c</t>
+  </si>
+  <si>
+    <t>0a00ac6f-5d85-4d0e-b4b8-b385cdedec4e</t>
+  </si>
+  <si>
+    <t>e.draft</t>
+  </si>
+  <si>
+    <t>e.admit</t>
+  </si>
+  <si>
+    <t>ATTACHMENT</t>
+  </si>
+  <si>
+    <t>附件变更</t>
+  </si>
+  <si>
+    <t>$zn.linkageAttachment != null</t>
+  </si>
+  <si>
+    <t>1faed51b-0f12-4975-b37e-b5d8bdde5429</t>
+  </si>
+  <si>
+    <t>7ed34a62-8c85-468a-bb82-19ee00be2404</t>
+  </si>
+  <si>
+    <t>20bcd5ed-49ba-4eed-b5f5-0129ab5de2c4</t>
+  </si>
+  <si>
+    <t>commentReject</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”</t>
+  </si>
+  <si>
+    <t>linkageAttachment</t>
+  </si>
+  <si>
+    <t>JSON:workflow/linkage/attachment-rule.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -424,7 +495,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -432,7 +503,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -440,7 +511,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -605,8 +676,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -933,34 +1004,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
-  <dimension ref="A2:P21"/>
+  <dimension ref="A2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="69.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="111" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="81.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -984,7 +1055,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +1105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1084,9 +1155,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>45</v>
@@ -1107,7 +1178,7 @@
         <v>56</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>34</v>
@@ -1126,9 +1197,9 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>45</v>
@@ -1149,7 +1220,7 @@
         <v>56</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>34</v>
@@ -1168,9 +1239,9 @@
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>45</v>
@@ -1191,7 +1262,7 @@
         <v>57</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>34</v>
@@ -1210,9 +1281,9 @@
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>45</v>
@@ -1233,7 +1304,7 @@
         <v>58</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>34</v>
@@ -1252,9 +1323,9 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>45</v>
@@ -1272,10 +1343,10 @@
         <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>34</v>
@@ -1294,9 +1365,9 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>45</v>
@@ -1317,7 +1388,7 @@
         <v>59</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>34</v>
@@ -1336,12 +1407,12 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>36</v>
@@ -1356,10 +1427,10 @@
         <v>37</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>34</v>
@@ -1378,9 +1449,9 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>45</v>
@@ -1398,10 +1469,10 @@
         <v>48</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>34</v>
@@ -1420,9 +1491,9 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>45</v>
@@ -1440,10 +1511,10 @@
         <v>50</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>34</v>
@@ -1464,9 +1535,9 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>45</v>
@@ -1487,7 +1558,7 @@
         <v>57</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>34</v>
@@ -1506,9 +1577,9 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>45</v>
@@ -1529,7 +1600,7 @@
         <v>58</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>34</v>
@@ -1548,9 +1619,9 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>45</v>
@@ -1565,13 +1636,13 @@
         <v>1005</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>34</v>
@@ -1590,9 +1661,9 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>45</v>
@@ -1610,10 +1681,10 @@
         <v>49</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>34</v>
@@ -1632,9 +1703,9 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>45</v>
@@ -1655,7 +1726,7 @@
         <v>52</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>34</v>
@@ -1676,9 +1747,9 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>45</v>
@@ -1696,10 +1767,10 @@
         <v>40</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>34</v>
@@ -1718,9 +1789,9 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>45</v>
@@ -1738,10 +1809,10 @@
         <v>55</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>34</v>
@@ -1760,9 +1831,9 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>45</v>
@@ -1780,10 +1851,10 @@
         <v>51</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>34</v>
@@ -1801,6 +1872,320 @@
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L26" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1B92C0-1815-8942-AD8F-56703B24BF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC3E42-34DE-DD4C-9088-5FCC612BE178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-5220" windowWidth="51200" windowHeight="22100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-54720" yWindow="-1600" windowWidth="51200" windowHeight="22100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="123">
   <si>
     <t>key</t>
   </si>
@@ -269,208 +269,210 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>process.oa.trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交接确认完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${lo.realname}”暂存了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”撤销了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”关闭了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”拒绝了任务单：${zn.taskSerial}，审批未通过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${lo.realname}”驳回了任务单：${zn.taskSerial}，审批未通过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}通过审批，工作交接确认完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}分派给了“${un.acceptedBy.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}通过了审批，被${un.closeBy.realname}关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${un.openBy.realname}”提交了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”将任务单：${zn.taskSerial}转给了“${un.acceptedBy.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54dce2fb-94a4-4b11-92c5-1b305a93e94c</t>
+  </si>
+  <si>
+    <t>cbc03480-8b2a-4a4e-bb7d-08ad9928dc4d</t>
+  </si>
+  <si>
+    <t>fb7b19fa-bdff-4008-9d70-e1c9be2d3efa</t>
+  </si>
+  <si>
+    <t>7361a77c-66d5-44f6-8449-d7a2a461557c</t>
+  </si>
+  <si>
+    <t>fe927e93-dd60-434b-bfcd-20aa852ac8e5</t>
+  </si>
+  <si>
+    <t>cbc66261-29d3-42aa-843e-716c53a23866</t>
+  </si>
+  <si>
+    <t>10f6d04d-04ab-4e10-bd4e-2a85b8c61261</t>
+  </si>
+  <si>
+    <t>6e5288f2-8d3b-4382-954e-6b51588e5935</t>
+  </si>
+  <si>
+    <t>7f48625b-e1fe-4fa6-a8fc-7c2947401d9b</t>
+  </si>
+  <si>
+    <t>9c630a04-92e5-4284-9752-8a2530764b48</t>
+  </si>
+  <si>
+    <t>8a3de14c-4553-4433-b94a-c0564c8167d7</t>
+  </si>
+  <si>
+    <t>cdfbdfa6-b7ca-44d3-98f6-9fb123107667</t>
+  </si>
+  <si>
+    <t>86aa3439-acb4-4634-bd55-118b34ab36c3</t>
+  </si>
+  <si>
+    <t>ecfcfa34-c338-4fcd-b561-a3cd468ab905</t>
+  </si>
+  <si>
+    <t>c9815e54-a80b-4b48-bf9f-f12789f50dc0</t>
+  </si>
+  <si>
+    <t>c5b00ea8-4881-42f9-a9ae-b8f384b984a7</t>
+  </si>
+  <si>
+    <t>c5e1e99d-9ec8-4cfa-902d-742d5e40290f</t>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.flowEnd == true and $zn.phase == "FINISHED"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.flowEnd == true and $zn.phase == "END"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$zn.flowEnd == true and $zn.phase == "CANCELED" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.phase == "DRAFT" and $zn.flowEnd == false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zo.acceptedBy != null</t>
+  </si>
+  <si>
+    <t>$zo.phase == "PENDING" and $zn.flowEnd == false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVAL</t>
+  </si>
+  <si>
+    <t>审批意见</t>
+  </si>
+  <si>
+    <t>$zn.commentApproval != null</t>
+  </si>
+  <si>
+    <t>e.approve</t>
+  </si>
+  <si>
+    <t>通过：${zn.commentApproval}</t>
+  </si>
+  <si>
+    <t>拒绝：${zn.commentReject}</t>
+  </si>
+  <si>
+    <t>commentApproval</t>
+  </si>
+  <si>
+    <t>cfa4faf3-c892-4ebf-a98d-36c29504ece8</t>
+  </si>
+  <si>
+    <t>e88c5615-28ee-4cdc-b5de-5e082b395f02</t>
+  </si>
+  <si>
+    <t>ab2da973-3255-4ea3-9050-22a9253b120c</t>
+  </si>
+  <si>
+    <t>0a00ac6f-5d85-4d0e-b4b8-b385cdedec4e</t>
+  </si>
+  <si>
+    <t>e.draft</t>
+  </si>
+  <si>
+    <t>e.admit</t>
+  </si>
+  <si>
+    <t>ATTACHMENT</t>
+  </si>
+  <si>
+    <t>附件变更</t>
+  </si>
+  <si>
+    <t>$zn.linkageAttachment != null</t>
+  </si>
+  <si>
+    <t>1faed51b-0f12-4975-b37e-b5d8bdde5429</t>
+  </si>
+  <si>
+    <t>7ed34a62-8c85-468a-bb82-19ee00be2404</t>
+  </si>
+  <si>
+    <t>20bcd5ed-49ba-4eed-b5f5-0129ab5de2c4</t>
+  </si>
+  <si>
+    <t>commentReject</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”</t>
+  </si>
+  <si>
+    <t>linkageAttachment</t>
+  </si>
+  <si>
+    <t>JSON:workflow/linkage/attachment-rule.json</t>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.approve" and $zn.commentReject != null</t>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.admit" and $zn.commentReject != null</t>
+  </si>
+  <si>
+    <t>$zn.status == "DRAFT" and $zn.phase == "REJECTED"</t>
+  </si>
+  <si>
     <t>$zn.status == "DRAFT" and $zn.phase == "REDO"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process.oa.trip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交接确认完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“${lo.realname}”暂存了${zw.name}工单：${zn.serial}。</t>
-  </si>
-  <si>
-    <t>“${lo.realname}”撤销了${zw.name}工单：${zn.serial}。</t>
-  </si>
-  <si>
-    <t>“${lo.realname}”关闭了${zw.name}工单：${zn.serial}。</t>
-  </si>
-  <si>
-    <t>“${lo.realname}”拒绝了任务单：${zn.taskSerial}，审批未通过。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“${lo.realname}”驳回了任务单：${zn.taskSerial}，审批未通过。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务单：${zn.taskSerial}通过审批，工作交接确认完成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务单：${zn.taskSerial}分派给了“${un.acceptedBy.realname}”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务单：${zn.taskSerial}通过了审批，被${un.closeBy.realname}关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“${un.openBy.realname}”提交了${zw.name}工单：${zn.serial}。</t>
-  </si>
-  <si>
-    <t>“${lo.realname}”将任务单：${zn.taskSerial}转给了“${un.acceptedBy.realname}”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54dce2fb-94a4-4b11-92c5-1b305a93e94c</t>
-  </si>
-  <si>
-    <t>cbc03480-8b2a-4a4e-bb7d-08ad9928dc4d</t>
-  </si>
-  <si>
-    <t>fb7b19fa-bdff-4008-9d70-e1c9be2d3efa</t>
-  </si>
-  <si>
-    <t>7361a77c-66d5-44f6-8449-d7a2a461557c</t>
-  </si>
-  <si>
-    <t>fe927e93-dd60-434b-bfcd-20aa852ac8e5</t>
-  </si>
-  <si>
-    <t>cbc66261-29d3-42aa-843e-716c53a23866</t>
-  </si>
-  <si>
-    <t>10f6d04d-04ab-4e10-bd4e-2a85b8c61261</t>
-  </si>
-  <si>
-    <t>6e5288f2-8d3b-4382-954e-6b51588e5935</t>
-  </si>
-  <si>
-    <t>7f48625b-e1fe-4fa6-a8fc-7c2947401d9b</t>
-  </si>
-  <si>
-    <t>9c630a04-92e5-4284-9752-8a2530764b48</t>
-  </si>
-  <si>
-    <t>8a3de14c-4553-4433-b94a-c0564c8167d7</t>
-  </si>
-  <si>
-    <t>cdfbdfa6-b7ca-44d3-98f6-9fb123107667</t>
-  </si>
-  <si>
-    <t>86aa3439-acb4-4634-bd55-118b34ab36c3</t>
-  </si>
-  <si>
-    <t>ecfcfa34-c338-4fcd-b561-a3cd468ab905</t>
-  </si>
-  <si>
-    <t>c9815e54-a80b-4b48-bf9f-f12789f50dc0</t>
-  </si>
-  <si>
-    <t>c5b00ea8-4881-42f9-a9ae-b8f384b984a7</t>
-  </si>
-  <si>
-    <t>c5e1e99d-9ec8-4cfa-902d-742d5e40290f</t>
-  </si>
-  <si>
-    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.flowEnd == true and $zn.phase == "FINISHED"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.flowEnd == true and $zn.phase == "END"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">$zn.flowEnd == true and $zn.phase == "CANCELED" </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zo.phase == "DRAFT" and $zn.flowEnd == false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
-  </si>
-  <si>
-    <t>$zn.status == "PENDING" and $zo.acceptedBy != null</t>
-  </si>
-  <si>
-    <t>$zo.phase == "PENDING" and $zn.flowEnd == false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPROVAL</t>
-  </si>
-  <si>
-    <t>审批意见</t>
-  </si>
-  <si>
-    <t>$zn.status == "DRAFT" and $zn.phase == "REJECTED"</t>
-  </si>
-  <si>
-    <t>$zn.commentApproval != null</t>
-  </si>
-  <si>
-    <t>$zn.commentReject != null</t>
-  </si>
-  <si>
-    <t>e.approve</t>
-  </si>
-  <si>
-    <t>通过：${zn.commentApproval}</t>
-  </si>
-  <si>
-    <t>拒绝：${zn.commentReject}</t>
-  </si>
-  <si>
-    <t>commentApproval</t>
-  </si>
-  <si>
-    <t>cfa4faf3-c892-4ebf-a98d-36c29504ece8</t>
-  </si>
-  <si>
-    <t>e88c5615-28ee-4cdc-b5de-5e082b395f02</t>
-  </si>
-  <si>
-    <t>ab2da973-3255-4ea3-9050-22a9253b120c</t>
-  </si>
-  <si>
-    <t>0a00ac6f-5d85-4d0e-b4b8-b385cdedec4e</t>
-  </si>
-  <si>
-    <t>e.draft</t>
-  </si>
-  <si>
-    <t>e.admit</t>
-  </si>
-  <si>
-    <t>ATTACHMENT</t>
-  </si>
-  <si>
-    <t>附件变更</t>
-  </si>
-  <si>
-    <t>$zn.linkageAttachment != null</t>
-  </si>
-  <si>
-    <t>1faed51b-0f12-4975-b37e-b5d8bdde5429</t>
-  </si>
-  <si>
-    <t>7ed34a62-8c85-468a-bb82-19ee00be2404</t>
-  </si>
-  <si>
-    <t>20bcd5ed-49ba-4eed-b5f5-0129ab5de2c4</t>
-  </si>
-  <si>
-    <t>commentReject</t>
-  </si>
-  <si>
-    <t>“${lo.realname}”</t>
-  </si>
-  <si>
-    <t>linkageAttachment</t>
-  </si>
-  <si>
-    <t>JSON:workflow/linkage/attachment-rule.json</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
   <dimension ref="A2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1159,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>45</v>
@@ -1178,7 +1180,7 @@
         <v>56</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>34</v>
@@ -1199,7 +1201,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>45</v>
@@ -1220,7 +1222,7 @@
         <v>56</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>34</v>
@@ -1241,7 +1243,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>45</v>
@@ -1262,7 +1264,7 @@
         <v>57</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>34</v>
@@ -1283,7 +1285,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>45</v>
@@ -1304,7 +1306,7 @@
         <v>58</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>34</v>
@@ -1325,7 +1327,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>45</v>
@@ -1343,10 +1345,10 @@
         <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>34</v>
@@ -1367,7 +1369,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>45</v>
@@ -1385,10 +1387,10 @@
         <v>43</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>34</v>
@@ -1409,10 +1411,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>36</v>
@@ -1427,10 +1429,10 @@
         <v>37</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>34</v>
@@ -1451,7 +1453,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>45</v>
@@ -1469,10 +1471,10 @@
         <v>48</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>34</v>
@@ -1493,7 +1495,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>45</v>
@@ -1511,10 +1513,10 @@
         <v>50</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>34</v>
@@ -1537,7 +1539,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>45</v>
@@ -1558,7 +1560,7 @@
         <v>57</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>34</v>
@@ -1579,7 +1581,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>45</v>
@@ -1600,7 +1602,7 @@
         <v>58</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>34</v>
@@ -1621,7 +1623,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>45</v>
@@ -1636,13 +1638,13 @@
         <v>1005</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>34</v>
@@ -1663,7 +1665,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>45</v>
@@ -1681,10 +1683,10 @@
         <v>49</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>34</v>
@@ -1705,7 +1707,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>45</v>
@@ -1726,7 +1728,7 @@
         <v>52</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>34</v>
@@ -1749,7 +1751,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>45</v>
@@ -1767,10 +1769,10 @@
         <v>40</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>34</v>
@@ -1791,7 +1793,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>45</v>
@@ -1809,10 +1811,10 @@
         <v>55</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>34</v>
@@ -1833,7 +1835,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>45</v>
@@ -1851,10 +1853,10 @@
         <v>51</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>34</v>
@@ -1875,7 +1877,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>45</v>
@@ -1884,20 +1886,20 @@
         <v>36</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="9">
         <v>2005</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="I22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>46</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L22" s="11" t="b">
         <v>1</v>
@@ -1919,29 +1921,29 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="9">
         <v>2005</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="I23" s="18" t="s">
         <v>34</v>
       </c>
@@ -1949,7 +1951,7 @@
         <v>46</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L23" s="11" t="b">
         <v>1</v>
@@ -1963,7 +1965,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>45</v>
@@ -1972,20 +1974,20 @@
         <v>47</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="9">
         <v>2005</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="I24" s="18" t="s">
         <v>34</v>
       </c>
@@ -1993,7 +1995,7 @@
         <v>46</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L24" s="11" t="b">
         <v>1</v>
@@ -2007,29 +2009,29 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="9">
         <v>2005</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="I25" s="18" t="s">
         <v>34</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>46</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L25" s="11" t="b">
         <v>1</v>
@@ -2051,28 +2053,28 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E26" s="9">
         <v>2010</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>34</v>
@@ -2081,13 +2083,13 @@
         <v>46</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L26" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>44</v>
@@ -2097,28 +2099,28 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E27" s="9">
         <v>2010</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>34</v>
@@ -2127,13 +2129,13 @@
         <v>46</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L27" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>44</v>
@@ -2143,28 +2145,28 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E28" s="9">
         <v>2010</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>34</v>
@@ -2173,13 +2175,13 @@
         <v>46</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L28" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N28" s="12" t="s">
         <v>44</v>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC3E42-34DE-DD4C-9088-5FCC612BE178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6189F7-6E2A-6B41-944A-2EDCFAB5EA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-54720" yWindow="-1600" windowWidth="51200" windowHeight="22100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -454,9 +454,6 @@
     <t>commentReject</t>
   </si>
   <si>
-    <t>“${lo.realname}”</t>
-  </si>
-  <si>
     <t>linkageAttachment</t>
   </si>
   <si>
@@ -473,6 +470,9 @@
   </si>
   <si>
     <t>$zn.status == "DRAFT" and $zn.phase == "REDO"</t>
+  </si>
+  <si>
+    <t>“${lo.realname}” ${zn.__message}</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1009,7 @@
   <dimension ref="A2:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1345,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>64</v>
@@ -1387,7 +1387,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>65</v>
@@ -1939,7 +1939,7 @@
         <v>97</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>101</v>
@@ -2027,7 +2027,7 @@
         <v>97</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>101</v>
@@ -2074,22 +2074,22 @@
         <v>111</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I26" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="10" t="s">
+      <c r="L26" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="L26" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>44</v>
@@ -2120,22 +2120,22 @@
         <v>111</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I27" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="10" t="s">
+      <c r="L27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="L27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>44</v>
@@ -2166,22 +2166,22 @@
         <v>111</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="10" t="s">
+      <c r="L28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="L28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="N28" s="12" t="s">
         <v>44</v>
